--- a/Examples/Data/Articles/FormatPivotTableCells/output.xlsx
+++ b/Examples/Data/Articles/FormatPivotTableCells/output.xlsx
@@ -7,21 +7,21 @@
     <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="PivotTable" sheetId="2" r:id="rId2"/>
-    <sheet name="Evaluation Warning" sheetId="3" r:id="rId3"/>
-    <sheet name="Evaluation Warning (0)" sheetId="4" r:id="rId4"/>
+    <sheet name="Data" sheetId="1" r:id="rId3"/>
+    <sheet name="PivotTable" sheetId="2" r:id="rId4"/>
+    <sheet name="Evaluation Warning" sheetId="3" r:id="rId5"/>
+    <sheet name="Evaluation Warning (1)" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr fullCalcOnLoad="1"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="43">
   <si>
     <t>Employee</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Evaluation Only. Created with Aspose.Cells for .NET.Copyright 2003 - 2014 Aspose Pty Ltd.</t>
+  </si>
+  <si>
+    <t>Evaluation Only. Created with Aspose.Cells for .NET.Copyright 2003 - 2016 Aspose Pty Ltd.</t>
   </si>
 </sst>
 </file>
@@ -156,9 +159,15 @@
   <numFmts count="1">
     <numFmt numFmtId="177" formatCode="$#,##0.00"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -199,20 +208,20 @@
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -221,14 +230,14 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
     </xf>
@@ -327,7 +336,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="3" refreshOnLoad="1" recordCount="0">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="3" refreshOnLoad="1" recordCount="29">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F30" sheet="Data"/>
   </cacheSource>
@@ -646,7 +655,7 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" autoFormatId="4101" applyNumberFormats="1" applyBorderFormats="1" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="1" applyWidthHeightFormats="1" dataCaption="Data" showMissing="1" preserveFormatting="1" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="1" showMemberPropertyTips="1">
   <location ref="B3:H16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -1034,7 +1043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -1643,12 +1652,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="B3:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -1783,13 +1792,13 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A5:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <dimension ref="A5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -1802,25 +1811,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A5:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="5" ht="23.25" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>